--- a/src/test/resources/testdata/SmokeTestData.xlsx
+++ b/src/test/resources/testdata/SmokeTestData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Optimnet\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D63CF-2846-4622-ACF3-1DBC1381C71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACE894-531E-45D4-AB83-6560614125F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="5" r:id="rId1"/>
     <sheet name="newStockContactLens" sheetId="8" r:id="rId2"/>
-    <sheet name="newStockGeneral" sheetId="1" r:id="rId3"/>
-    <sheet name="contactLensEntry" sheetId="6" r:id="rId4"/>
-    <sheet name="newStockLens" sheetId="7" r:id="rId5"/>
-    <sheet name="stockTransfer" sheetId="2" r:id="rId6"/>
-    <sheet name="order" sheetId="3" r:id="rId7"/>
-    <sheet name="Bill" sheetId="4" r:id="rId8"/>
+    <sheet name="newLensStock" sheetId="9" r:id="rId3"/>
+    <sheet name="newStockGeneral" sheetId="1" r:id="rId4"/>
+    <sheet name="contactLensEntry" sheetId="6" r:id="rId5"/>
+    <sheet name="newStockLens" sheetId="7" r:id="rId6"/>
+    <sheet name="stockTransfer" sheetId="2" r:id="rId7"/>
+    <sheet name="order" sheetId="3" r:id="rId8"/>
+    <sheet name="Bill" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>Category</t>
   </si>
@@ -260,13 +261,49 @@
   </si>
   <si>
     <t>DAILY</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>sprice</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>MAHADEV OPTICALS</t>
+  </si>
+  <si>
+    <t>1.67RI</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +325,21 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +370,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +416,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D8BCD0-864F-40B4-BED8-3AEF908039CF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -778,6 +843,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19426E-73DF-4AE0-8E9A-25B7580B05F2}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J2" s="11">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K2:N2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -890,7 +1065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAD79CC-BE19-4BFE-A044-986D4365C117}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -970,12 +1145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17573C3B-811A-47F6-A92B-E95BE5705710}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0283403E-6E64-4CF1-A9BF-B9189799B7C3}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1251,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13A83F9-CCC4-49B3-92E8-F39F19047387}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1364,7 +1539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A733D-3CC2-4378-9E0F-6B4D2E50AB5C}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/src/test/resources/testdata/SmokeTestData.xlsx
+++ b/src/test/resources/testdata/SmokeTestData.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Optimnet\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACE894-531E-45D4-AB83-6560614125F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731E81E-DD1C-4267-A5A0-D7E71E5E04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="36" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="5" r:id="rId1"/>
     <sheet name="newStockContactLens" sheetId="8" r:id="rId2"/>
     <sheet name="newLensStock" sheetId="9" r:id="rId3"/>
     <sheet name="newStockGeneral" sheetId="1" r:id="rId4"/>
-    <sheet name="contactLensEntry" sheetId="6" r:id="rId5"/>
-    <sheet name="newStockLens" sheetId="7" r:id="rId6"/>
-    <sheet name="stockTransfer" sheetId="2" r:id="rId7"/>
-    <sheet name="order" sheetId="3" r:id="rId8"/>
-    <sheet name="Bill" sheetId="4" r:id="rId9"/>
+    <sheet name="TransferStock" sheetId="10" r:id="rId5"/>
+    <sheet name="order" sheetId="3" r:id="rId6"/>
+    <sheet name="invoice" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Category</t>
   </si>
@@ -74,9 +72,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Coat</t>
-  </si>
-  <si>
     <t>LENS</t>
   </si>
   <si>
@@ -89,33 +84,6 @@
     <t>POLY</t>
   </si>
   <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>NEYON</t>
-  </si>
-  <si>
-    <t>ZEISS</t>
-  </si>
-  <si>
-    <t>SINGLEVISION</t>
-  </si>
-  <si>
-    <t>PROGRESSIVE</t>
-  </si>
-  <si>
-    <t>GLASS</t>
-  </si>
-  <si>
-    <t>PLASTIC</t>
-  </si>
-  <si>
-    <t>TITUS</t>
-  </si>
-  <si>
-    <t>HARDCOAT</t>
-  </si>
-  <si>
     <t>SPH</t>
   </si>
   <si>
@@ -134,27 +102,9 @@
     <t>+5.50</t>
   </si>
   <si>
-    <t>-2.00</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>+4.50</t>
-  </si>
-  <si>
     <t>-1.25</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>+3.25</t>
-  </si>
-  <si>
-    <t>-0.50</t>
-  </si>
-  <si>
     <t>CONTACT LENS</t>
   </si>
   <si>
@@ -167,143 +117,131 @@
     <t>Barcode</t>
   </si>
   <si>
-    <t>SESSBBBB7BFES00M</t>
-  </si>
-  <si>
-    <t>SESSAAAA5BFES00P</t>
-  </si>
-  <si>
-    <t>SESSAAAAA1FES00P</t>
-  </si>
-  <si>
-    <t>R111A6667GFES00M</t>
-  </si>
-  <si>
-    <t>R111A6664GFES00M</t>
-  </si>
-  <si>
-    <t>FSK0K00053FSRCEA</t>
+    <t>Coating</t>
+  </si>
+  <si>
+    <t>TRIO</t>
+  </si>
+  <si>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>FIBRE</t>
+  </si>
+  <si>
+    <t>ESSILOR NVG 2.5</t>
+  </si>
+  <si>
+    <t>SCM004</t>
+  </si>
+  <si>
+    <t>DIAMOND</t>
+  </si>
+  <si>
+    <t>CL_Category</t>
+  </si>
+  <si>
+    <t>CL_Product</t>
+  </si>
+  <si>
+    <t>CL_Qty</t>
+  </si>
+  <si>
+    <t>CL_Model</t>
+  </si>
+  <si>
+    <t>CL_Tint</t>
+  </si>
+  <si>
+    <t>CL_Usage</t>
+  </si>
+  <si>
+    <t>CL_rate</t>
+  </si>
+  <si>
+    <t>CL_sprice</t>
+  </si>
+  <si>
+    <t>SUPRA</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>sprice</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>MAHADEV OPTICALS</t>
+  </si>
+  <si>
+    <t>1.67RI</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>FSK0K00023FSRCEP</t>
+  </si>
+  <si>
+    <t>FSK0K00013FSRCEF</t>
   </si>
   <si>
     <t>FSIOK00063SSRCEM</t>
   </si>
   <si>
-    <t>Coating</t>
-  </si>
-  <si>
-    <t>TRIO</t>
-  </si>
-  <si>
-    <t>User Type</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>SuperAdmin</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>FIBRE</t>
-  </si>
-  <si>
-    <t>ESSILOR NVG 2.5</t>
-  </si>
-  <si>
-    <t>SCM004</t>
-  </si>
-  <si>
-    <t>DIAMOND</t>
-  </si>
-  <si>
-    <t>CL_Category</t>
-  </si>
-  <si>
-    <t>CL_Product</t>
-  </si>
-  <si>
-    <t>CL_Qty</t>
-  </si>
-  <si>
-    <t>CL_Rate</t>
-  </si>
-  <si>
-    <t>CL_Sprice</t>
-  </si>
-  <si>
-    <t>CL_Model</t>
-  </si>
-  <si>
-    <t>CL_Tint</t>
-  </si>
-  <si>
-    <t>CL_Usage</t>
-  </si>
-  <si>
-    <t>CL_rate</t>
-  </si>
-  <si>
-    <t>CL_sprice</t>
-  </si>
-  <si>
-    <t>SUPRA</t>
-  </si>
-  <si>
-    <t>DAILY</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>sprice</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>MAHADEV OPTICALS</t>
-  </si>
-  <si>
-    <t>1.67RI</t>
-  </si>
-  <si>
-    <t>CLEAR</t>
+    <t>MAA BHAGAVATHI</t>
+  </si>
+  <si>
+    <t>FESS77773XFES00P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +272,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,12 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -425,6 +370,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,25 +672,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>55</v>
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -760,37 +712,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>71</v>
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>25</v>
@@ -802,21 +754,21 @@
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>25</v>
@@ -828,13 +780,13 @@
         <v>500</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19426E-73DF-4AE0-8E9A-25B7580B05F2}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -856,91 +808,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>30</v>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="11">
+        <v>62</v>
+      </c>
+      <c r="H2" s="9">
         <v>5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>2500</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>5000</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>32</v>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1006,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1035,19 +987,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -1066,514 +1018,183 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAD79CC-BE19-4BFE-A044-986D4365C117}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16350F4D-215F-4454-A486-5D7BD0404019}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1">
-        <v>200</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17573C3B-811A-47F6-A92B-E95BE5705710}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13A83F9-CCC4-49B3-92E8-F39F19047387}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="H2" s="11">
         <v>2500</v>
       </c>
-      <c r="I2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="I2" s="13">
+        <v>-0.25</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13">
         <v>150</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4500</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:M4" numberStoredAsText="1"/>
+    <ignoredError sqref="J2:L2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0283403E-6E64-4CF1-A9BF-B9189799B7C3}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCCFF5C-F14F-421D-B5F8-68C9BBB1BCF5}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13A83F9-CCC4-49B3-92E8-F39F19047387}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2500</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-0.25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3">
-        <v>150</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J5:L5" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A733D-3CC2-4378-9E0F-6B4D2E50AB5C}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
